--- a/combined_analysis/intersectional-genes/Rho_down & Exp_down & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_down & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>chr</t>
   </si>
@@ -63,43 +63,88 @@
     <t>ensembl</t>
   </si>
   <si>
+    <t>chr2</t>
+  </si>
+  <si>
     <t>chr14</t>
   </si>
   <si>
     <t>chr19</t>
   </si>
   <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
     <t>chr10</t>
   </si>
   <si>
+    <t>CFLAR</t>
+  </si>
+  <si>
     <t>NFKBIA</t>
   </si>
   <si>
+    <t>SLC44A2</t>
+  </si>
+  <si>
+    <t>GPR183</t>
+  </si>
+  <si>
     <t>FPR2</t>
   </si>
   <si>
+    <t>ACBD3</t>
+  </si>
+  <si>
+    <t>MTF1</t>
+  </si>
+  <si>
     <t>SGMS1</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>+</t>
+    <t>49</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>49</t>
+    <t>36,14</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>0,814</t>
+  </si>
+  <si>
+    <t>ENSG00000003402.20</t>
+  </si>
+  <si>
     <t>ENSG00000100906.11</t>
   </si>
   <si>
+    <t>ENSG00000129353.15</t>
+  </si>
+  <si>
+    <t>ENSG00000169508.7</t>
+  </si>
+  <si>
     <t>ENSG00000171049.9</t>
+  </si>
+  <si>
+    <t>ENSG00000182827.9</t>
+  </si>
+  <si>
+    <t>ENSG00000188786.10</t>
   </si>
   <si>
     <t>ENSG00000198964.14</t>
@@ -574,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,25 +677,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>35401908</v>
+        <v>201129982</v>
       </c>
       <c r="C2">
-        <v>35402006</v>
+        <v>201130031</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>35401908</v>
+        <v>201129982</v>
       </c>
       <c r="H2">
-        <v>35402006</v>
+        <v>201130031</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -659,19 +704,19 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M2">
-        <v>-5.62040086570778</v>
+        <v>-1.64690884386422</v>
       </c>
       <c r="N2">
-        <v>4.2071736428361E-05</v>
+        <v>0.00169703103527508</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -679,25 +724,25 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>51769439</v>
+        <v>35401908</v>
       </c>
       <c r="C3">
-        <v>51769488</v>
+        <v>35402006</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>51769439</v>
+        <v>35401908</v>
       </c>
       <c r="H3">
-        <v>51769488</v>
+        <v>35402006</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -706,19 +751,19 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>-2.28238238567581</v>
+        <v>-5.62040086570778</v>
       </c>
       <c r="N3">
-        <v>0.000540236791675474</v>
+        <v>4.2071736428361E-05</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -726,25 +771,25 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>50343594</v>
+        <v>10643716</v>
       </c>
       <c r="C4">
-        <v>50343643</v>
+        <v>10643765</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>50343594</v>
+        <v>10643716</v>
       </c>
       <c r="H4">
-        <v>50343643</v>
+        <v>10643765</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -753,19 +798,301 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>-1.38629436110229</v>
+      </c>
+      <c r="N4">
+        <v>0.00295183283789968</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>99295381</v>
+      </c>
+      <c r="C5">
+        <v>99295430</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>99295381</v>
+      </c>
+      <c r="H5">
+        <v>99295430</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>-1.12145178063793</v>
+      </c>
+      <c r="N5">
+        <v>0.00109929271018028</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>51769439</v>
+      </c>
+      <c r="C6">
+        <v>51769488</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>51769439</v>
+      </c>
+      <c r="H6">
+        <v>51769488</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>-2.28238238567581</v>
+      </c>
+      <c r="N6">
+        <v>0.000540236791675474</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>226152485</v>
+      </c>
+      <c r="C7">
+        <v>226152534</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>226152485</v>
+      </c>
+      <c r="H7">
+        <v>226152534</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>-1.27919622556352</v>
+      </c>
+      <c r="N7">
+        <v>0.0004457410926773651</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>37822305</v>
+      </c>
+      <c r="C8">
+        <v>37822354</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>37822305</v>
+      </c>
+      <c r="H8">
+        <v>37822354</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>5.45532111534834</v>
+      </c>
+      <c r="N8">
+        <v>9.373188899486349E-07</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>37857674</v>
+      </c>
+      <c r="C9">
+        <v>37858501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>37857674</v>
+      </c>
+      <c r="H9">
+        <v>37858501</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>-1.74296930505857</v>
+      </c>
+      <c r="N9">
+        <v>0.000485927010331788</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>50343594</v>
+      </c>
+      <c r="C10">
+        <v>50343643</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>50343594</v>
+      </c>
+      <c r="H10">
+        <v>50343643</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10">
         <v>-3.01898913575005</v>
       </c>
-      <c r="N4">
+      <c r="N10">
         <v>0.0006183256677720911</v>
       </c>
-      <c r="O4" t="s">
-        <v>28</v>
+      <c r="O10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,217 +1110,446 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>-0.626</v>
+        <v>-2.26</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5679999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F2">
-        <v>0.28</v>
+        <v>-0.333</v>
       </c>
       <c r="G2">
-        <v>0.335</v>
+        <v>0.377</v>
       </c>
       <c r="H2">
-        <v>-0.32</v>
+        <v>-0.153</v>
       </c>
       <c r="I2">
-        <v>0.226</v>
+        <v>0.797</v>
       </c>
       <c r="J2">
-        <v>-1.106</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K2">
-        <v>0.218</v>
+        <v>0.786</v>
       </c>
       <c r="L2">
-        <v>0.247</v>
+        <v>0.791</v>
       </c>
       <c r="M2">
-        <v>0.298</v>
-      </c>
-      <c r="Z2">
-        <v>-0.302</v>
-      </c>
-      <c r="AA2">
-        <v>0.776</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>-2.21</v>
+        <v>-0.725</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D3">
-        <v>2.22</v>
+        <v>0.097</v>
       </c>
       <c r="E3">
-        <v>0.011</v>
+        <v>0.905</v>
       </c>
       <c r="F3">
-        <v>2.453</v>
+        <v>1.199</v>
       </c>
       <c r="G3">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9419999999999999</v>
+        <v>1.818</v>
       </c>
       <c r="I3">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="J3">
-        <v>0.032</v>
+        <v>0.077</v>
       </c>
       <c r="K3">
-        <v>0.985</v>
+        <v>0.947</v>
       </c>
       <c r="L3">
-        <v>0.277</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="M3">
-        <v>0.624</v>
+        <v>0.982</v>
       </c>
       <c r="Z3">
-        <v>-0.003</v>
+        <v>-0.176</v>
       </c>
       <c r="AA3">
-        <v>0.998</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>-2.26</v>
+        <v>-2.21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.556</v>
+        <v>2.22</v>
       </c>
       <c r="E4">
-        <v>0.08400000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="F4">
-        <v>-0.333</v>
+        <v>2.453</v>
       </c>
       <c r="G4">
-        <v>0.377</v>
+        <v>0.189</v>
       </c>
       <c r="H4">
-        <v>-0.153</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I4">
-        <v>0.797</v>
+        <v>0.019</v>
       </c>
       <c r="J4">
-        <v>-0.08799999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="K4">
-        <v>0.786</v>
+        <v>0.985</v>
       </c>
       <c r="L4">
-        <v>0.791</v>
+        <v>0.277</v>
       </c>
       <c r="M4">
-        <v>0.221</v>
+        <v>0.624</v>
+      </c>
+      <c r="Z4">
+        <v>-0.003</v>
+      </c>
+      <c r="AA4">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>-0.968</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-0.392</v>
+      </c>
+      <c r="E5">
+        <v>0.002</v>
+      </c>
+      <c r="F5">
+        <v>0.182</v>
+      </c>
+      <c r="G5">
+        <v>0.407</v>
+      </c>
+      <c r="H5">
+        <v>0.23</v>
+      </c>
+      <c r="I5">
+        <v>0.111</v>
+      </c>
+      <c r="J5">
+        <v>0.147</v>
+      </c>
+      <c r="K5">
+        <v>0.401</v>
+      </c>
+      <c r="L5">
+        <v>-0.242</v>
+      </c>
+      <c r="M5">
+        <v>0.178</v>
+      </c>
+      <c r="Z5">
+        <v>0.321</v>
+      </c>
+      <c r="AA5">
+        <v>0.738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>-0.255</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.408</v>
+      </c>
+      <c r="E6">
+        <v>0.224</v>
+      </c>
+      <c r="F6">
+        <v>-0.005</v>
+      </c>
+      <c r="G6">
+        <v>0.977</v>
+      </c>
+      <c r="H6">
+        <v>-0.034</v>
+      </c>
+      <c r="I6">
+        <v>0.84</v>
+      </c>
+      <c r="J6">
+        <v>0.278</v>
+      </c>
+      <c r="K6">
+        <v>0.272</v>
+      </c>
+      <c r="L6">
+        <v>0.165</v>
+      </c>
+      <c r="M6">
+        <v>0.319</v>
+      </c>
+      <c r="Z6">
+        <v>0.015</v>
+      </c>
+      <c r="AA6">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>-0.157</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.016</v>
+      </c>
+      <c r="E7">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.447</v>
+      </c>
+      <c r="G7">
+        <v>0.214</v>
+      </c>
+      <c r="H7">
+        <v>0.305</v>
+      </c>
+      <c r="I7">
+        <v>0.204</v>
+      </c>
+      <c r="J7">
+        <v>0.002</v>
+      </c>
+      <c r="K7">
+        <v>0.994</v>
+      </c>
+      <c r="L7">
+        <v>0.283</v>
+      </c>
+      <c r="M7">
+        <v>0.204</v>
+      </c>
+      <c r="Z7">
+        <v>0.124</v>
+      </c>
+      <c r="AA7">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>-3.179</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.184</v>
+      </c>
+      <c r="E8">
+        <v>0.373</v>
+      </c>
+      <c r="F8">
+        <v>1.156</v>
+      </c>
+      <c r="G8">
+        <v>0.013</v>
+      </c>
+      <c r="H8">
+        <v>0.594</v>
+      </c>
+      <c r="I8">
+        <v>0.114</v>
+      </c>
+      <c r="J8">
+        <v>-0.208</v>
+      </c>
+      <c r="K8">
+        <v>0.659</v>
+      </c>
+      <c r="L8">
+        <v>-0.03</v>
+      </c>
+      <c r="M8">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>-0.626</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.28</v>
+      </c>
+      <c r="G9">
+        <v>0.335</v>
+      </c>
+      <c r="H9">
+        <v>-0.32</v>
+      </c>
+      <c r="I9">
+        <v>0.226</v>
+      </c>
+      <c r="J9">
+        <v>-1.106</v>
+      </c>
+      <c r="K9">
+        <v>0.218</v>
+      </c>
+      <c r="L9">
+        <v>0.247</v>
+      </c>
+      <c r="M9">
+        <v>0.298</v>
+      </c>
+      <c r="Z9">
+        <v>-0.302</v>
+      </c>
+      <c r="AA9">
+        <v>0.776</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,163 +1570,368 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>-0.105</v>
+        <v>-0.191</v>
       </c>
       <c r="C2">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
       <c r="D2">
-        <v>-0.117</v>
+        <v>-0.323</v>
       </c>
       <c r="E2">
-        <v>0.083</v>
+        <v>0.015</v>
       </c>
       <c r="F2">
-        <v>-0.17</v>
+        <v>-0.247</v>
       </c>
       <c r="G2">
-        <v>0.105</v>
+        <v>0.033</v>
       </c>
       <c r="H2">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="I2">
-        <v>0.123</v>
+        <v>0.929</v>
       </c>
       <c r="J2">
-        <v>0.034</v>
+        <v>0.002</v>
       </c>
       <c r="K2">
-        <v>0.669</v>
+        <v>0.834</v>
       </c>
       <c r="L2">
-        <v>0.034</v>
+        <v>0.002</v>
       </c>
       <c r="M2">
-        <v>0.669</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>-0.105</v>
+        <v>-0.14</v>
       </c>
       <c r="C3">
-        <v>0.042</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>-0.197</v>
+        <v>-0.302</v>
       </c>
       <c r="E3">
-        <v>0.652</v>
+        <v>0.362</v>
       </c>
       <c r="F3">
-        <v>-0.039</v>
+        <v>-0.192</v>
       </c>
       <c r="G3">
-        <v>0.697</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H3">
-        <v>0.034</v>
+        <v>0.012</v>
       </c>
       <c r="I3">
-        <v>0.312</v>
+        <v>0.626</v>
       </c>
       <c r="J3">
-        <v>-0.055</v>
+        <v>-0.026</v>
       </c>
       <c r="K3">
-        <v>0.449</v>
+        <v>0.474</v>
       </c>
       <c r="L3">
-        <v>-0.055</v>
+        <v>-0.026</v>
       </c>
       <c r="M3">
-        <v>0.449</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>-0.191</v>
+        <v>-0.105</v>
       </c>
       <c r="C4">
+        <v>0.042</v>
+      </c>
+      <c r="D4">
+        <v>-0.197</v>
+      </c>
+      <c r="E4">
+        <v>0.652</v>
+      </c>
+      <c r="F4">
+        <v>-0.039</v>
+      </c>
+      <c r="G4">
+        <v>0.697</v>
+      </c>
+      <c r="H4">
+        <v>0.034</v>
+      </c>
+      <c r="I4">
+        <v>0.312</v>
+      </c>
+      <c r="J4">
+        <v>-0.055</v>
+      </c>
+      <c r="K4">
+        <v>0.449</v>
+      </c>
+      <c r="L4">
+        <v>-0.055</v>
+      </c>
+      <c r="M4">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>-0.144</v>
+      </c>
+      <c r="C5">
+        <v>0.033</v>
+      </c>
+      <c r="D5">
+        <v>-0.123</v>
+      </c>
+      <c r="E5">
+        <v>0.066</v>
+      </c>
+      <c r="F5">
+        <v>-0.112</v>
+      </c>
+      <c r="G5">
+        <v>0.184</v>
+      </c>
+      <c r="H5">
+        <v>-0.062</v>
+      </c>
+      <c r="I5">
+        <v>0.001</v>
+      </c>
+      <c r="J5">
+        <v>-0.408</v>
+      </c>
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+      <c r="L5">
+        <v>-0.408</v>
+      </c>
+      <c r="M5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>-0.142</v>
+      </c>
+      <c r="C6">
+        <v>0.001</v>
+      </c>
+      <c r="D6">
+        <v>-0.13</v>
+      </c>
+      <c r="E6">
+        <v>0.195</v>
+      </c>
+      <c r="F6">
+        <v>-0.081</v>
+      </c>
+      <c r="G6">
+        <v>0.408</v>
+      </c>
+      <c r="H6">
+        <v>0.041</v>
+      </c>
+      <c r="I6">
+        <v>0.017</v>
+      </c>
+      <c r="J6">
+        <v>0.004</v>
+      </c>
+      <c r="K6">
+        <v>0.646</v>
+      </c>
+      <c r="L6">
+        <v>0.004</v>
+      </c>
+      <c r="M6">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>-0.297</v>
+      </c>
+      <c r="C7">
         <v>0.002</v>
       </c>
-      <c r="D4">
-        <v>-0.323</v>
-      </c>
-      <c r="E4">
-        <v>0.015</v>
-      </c>
-      <c r="F4">
-        <v>-0.247</v>
-      </c>
-      <c r="G4">
-        <v>0.033</v>
-      </c>
-      <c r="H4">
-        <v>0.013</v>
-      </c>
-      <c r="I4">
-        <v>0.929</v>
-      </c>
-      <c r="J4">
-        <v>0.002</v>
-      </c>
-      <c r="K4">
-        <v>0.834</v>
-      </c>
-      <c r="L4">
-        <v>0.002</v>
-      </c>
-      <c r="M4">
-        <v>0.834</v>
+      <c r="D7">
+        <v>-0.262</v>
+      </c>
+      <c r="E7">
+        <v>0.012</v>
+      </c>
+      <c r="F7">
+        <v>-0.254</v>
+      </c>
+      <c r="G7">
+        <v>0.064</v>
+      </c>
+      <c r="H7">
+        <v>-0.147</v>
+      </c>
+      <c r="I7">
+        <v>0.138</v>
+      </c>
+      <c r="J7">
+        <v>-0.134</v>
+      </c>
+      <c r="K7">
+        <v>0.823</v>
+      </c>
+      <c r="L7">
+        <v>-0.134</v>
+      </c>
+      <c r="M7">
+        <v>0.823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>-0.136</v>
+      </c>
+      <c r="C8">
+        <v>0.26</v>
+      </c>
+      <c r="D8">
+        <v>-0.145</v>
+      </c>
+      <c r="E8">
+        <v>0.152</v>
+      </c>
+      <c r="F8">
+        <v>-0.112</v>
+      </c>
+      <c r="G8">
+        <v>0.23</v>
+      </c>
+      <c r="H8">
+        <v>-0.023</v>
+      </c>
+      <c r="I8">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.151</v>
+      </c>
+      <c r="K8">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.151</v>
+      </c>
+      <c r="M8">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>-0.105</v>
+      </c>
+      <c r="C9">
+        <v>0.021</v>
+      </c>
+      <c r="D9">
+        <v>-0.117</v>
+      </c>
+      <c r="E9">
+        <v>0.083</v>
+      </c>
+      <c r="F9">
+        <v>-0.17</v>
+      </c>
+      <c r="G9">
+        <v>0.105</v>
+      </c>
+      <c r="H9">
+        <v>0.017</v>
+      </c>
+      <c r="I9">
+        <v>0.123</v>
+      </c>
+      <c r="J9">
+        <v>0.034</v>
+      </c>
+      <c r="K9">
+        <v>0.669</v>
+      </c>
+      <c r="L9">
+        <v>0.034</v>
+      </c>
+      <c r="M9">
+        <v>0.669</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_down & Exp_down & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_down & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>chr</t>
   </si>
@@ -72,12 +72,6 @@
     <t>chr19</t>
   </si>
   <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr1</t>
-  </si>
-  <si>
     <t>chr10</t>
   </si>
   <si>
@@ -90,18 +84,9 @@
     <t>SLC44A2</t>
   </si>
   <si>
-    <t>GPR183</t>
-  </si>
-  <si>
     <t>FPR2</t>
   </si>
   <si>
-    <t>ACBD3</t>
-  </si>
-  <si>
-    <t>MTF1</t>
-  </si>
-  <si>
     <t>SGMS1</t>
   </si>
   <si>
@@ -117,15 +102,9 @@
     <t>98</t>
   </si>
   <si>
-    <t>36,14</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>0,814</t>
-  </si>
-  <si>
     <t>ENSG00000003402.20</t>
   </si>
   <si>
@@ -135,18 +114,9 @@
     <t>ENSG00000129353.15</t>
   </si>
   <si>
-    <t>ENSG00000169508.7</t>
-  </si>
-  <si>
     <t>ENSG00000171049.9</t>
   </si>
   <si>
-    <t>ENSG00000182827.9</t>
-  </si>
-  <si>
-    <t>ENSG00000188786.10</t>
-  </si>
-  <si>
     <t>ENSG00000198964.14</t>
   </si>
   <si>
@@ -184,42 +154,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -619,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,13 +617,13 @@
         <v>201130031</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>201129982</v>
@@ -704,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>-1.64690884386422</v>
@@ -716,7 +650,7 @@
         <v>0.00169703103527508</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -730,13 +664,13 @@
         <v>35402006</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>35401908</v>
@@ -751,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <v>-5.62040086570778</v>
@@ -763,7 +697,7 @@
         <v>4.2071736428361E-05</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -777,13 +711,13 @@
         <v>10643765</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>10643716</v>
@@ -798,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>-1.38629436110229</v>
@@ -810,33 +744,33 @@
         <v>0.00295183283789968</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>99295381</v>
+        <v>51769439</v>
       </c>
       <c r="C5">
-        <v>99295430</v>
+        <v>51769488</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5">
-        <v>99295381</v>
+        <v>51769439</v>
       </c>
       <c r="H5">
-        <v>99295430</v>
+        <v>51769488</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -845,45 +779,45 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>-1.12145178063793</v>
+        <v>-2.28238238567581</v>
       </c>
       <c r="N5">
-        <v>0.00109929271018028</v>
+        <v>0.000540236791675474</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>51769439</v>
+        <v>50343594</v>
       </c>
       <c r="C6">
-        <v>51769488</v>
+        <v>50343643</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6">
-        <v>51769439</v>
+        <v>50343594</v>
       </c>
       <c r="H6">
-        <v>51769488</v>
+        <v>50343643</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -892,207 +826,19 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>-2.28238238567581</v>
+        <v>-3.01898913575005</v>
       </c>
       <c r="N6">
-        <v>0.000540236791675474</v>
+        <v>0.0006183256677720911</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>226152485</v>
-      </c>
-      <c r="C7">
-        <v>226152534</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>226152485</v>
-      </c>
-      <c r="H7">
-        <v>226152534</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>-1.27919622556352</v>
-      </c>
-      <c r="N7">
-        <v>0.0004457410926773651</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>37822305</v>
-      </c>
-      <c r="C8">
-        <v>37822354</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>37822305</v>
-      </c>
-      <c r="H8">
-        <v>37822354</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>5.45532111534834</v>
-      </c>
-      <c r="N8">
-        <v>9.373188899486349E-07</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>37857674</v>
-      </c>
-      <c r="C9">
-        <v>37858501</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>37857674</v>
-      </c>
-      <c r="H9">
-        <v>37858501</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
         <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>-1.74296930505857</v>
-      </c>
-      <c r="N9">
-        <v>0.000485927010331788</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>50343594</v>
-      </c>
-      <c r="C10">
-        <v>50343643</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>50343594</v>
-      </c>
-      <c r="H10">
-        <v>50343643</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10">
-        <v>-3.01898913575005</v>
-      </c>
-      <c r="N10">
-        <v>0.0006183256677720911</v>
-      </c>
-      <c r="O10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1102,453 +848,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>-2.26</v>
+        <v>-0.425</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>2.22</v>
+      </c>
+      <c r="E2">
+        <v>0.011</v>
+      </c>
+      <c r="F2">
+        <v>2.453</v>
+      </c>
+      <c r="G2">
+        <v>0.189</v>
+      </c>
+      <c r="H2">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.019</v>
+      </c>
+      <c r="J2">
+        <v>0.032</v>
+      </c>
+      <c r="K2">
+        <v>0.985</v>
+      </c>
+      <c r="L2">
+        <v>0.277</v>
+      </c>
+      <c r="M2">
+        <v>0.624</v>
+      </c>
+      <c r="N2">
+        <v>-0.003</v>
+      </c>
+      <c r="O2">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>-1.2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.556</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-0.333</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.377</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>-0.153</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.797</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>-0.08799999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.786</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.791</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>0.221</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>-0.725</v>
-      </c>
-      <c r="C3">
-        <v>0.001</v>
-      </c>
-      <c r="D3">
-        <v>0.097</v>
-      </c>
-      <c r="E3">
-        <v>0.905</v>
-      </c>
-      <c r="F3">
-        <v>1.199</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1.818</v>
-      </c>
-      <c r="I3">
-        <v>0.014</v>
-      </c>
-      <c r="J3">
-        <v>0.077</v>
-      </c>
-      <c r="K3">
-        <v>0.947</v>
-      </c>
-      <c r="L3">
-        <v>-0.008999999999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.982</v>
-      </c>
-      <c r="Z3">
-        <v>-0.176</v>
-      </c>
-      <c r="AA3">
-        <v>0.789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>-2.21</v>
+        <v>-0.439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.22</v>
+        <v>-0.392</v>
       </c>
       <c r="E4">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F4">
-        <v>2.453</v>
+        <v>0.182</v>
       </c>
       <c r="G4">
-        <v>0.189</v>
+        <v>0.407</v>
       </c>
       <c r="H4">
-        <v>0.9419999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I4">
-        <v>0.019</v>
+        <v>0.111</v>
       </c>
       <c r="J4">
-        <v>0.032</v>
+        <v>0.147</v>
       </c>
       <c r="K4">
-        <v>0.985</v>
+        <v>0.401</v>
       </c>
       <c r="L4">
-        <v>0.277</v>
+        <v>-0.242</v>
       </c>
       <c r="M4">
-        <v>0.624</v>
-      </c>
-      <c r="Z4">
-        <v>-0.003</v>
-      </c>
-      <c r="AA4">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>0.178</v>
+      </c>
+      <c r="N4">
+        <v>0.321</v>
+      </c>
+      <c r="O4">
+        <v>0.738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.968</v>
+        <v>-1.63</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.392</v>
+        <v>0.184</v>
       </c>
       <c r="E5">
-        <v>0.002</v>
+        <v>0.373</v>
       </c>
       <c r="F5">
-        <v>0.182</v>
+        <v>1.156</v>
       </c>
       <c r="G5">
-        <v>0.407</v>
+        <v>0.013</v>
       </c>
       <c r="H5">
-        <v>0.23</v>
+        <v>0.594</v>
       </c>
       <c r="I5">
-        <v>0.111</v>
+        <v>0.114</v>
       </c>
       <c r="J5">
-        <v>0.147</v>
+        <v>-0.208</v>
       </c>
       <c r="K5">
-        <v>0.401</v>
+        <v>0.659</v>
       </c>
       <c r="L5">
-        <v>-0.242</v>
+        <v>-0.03</v>
       </c>
       <c r="M5">
-        <v>0.178</v>
-      </c>
-      <c r="Z5">
-        <v>0.321</v>
-      </c>
-      <c r="AA5">
-        <v>0.738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>-0.255</v>
+        <v>-0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.408</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E6">
-        <v>0.224</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F6">
-        <v>-0.005</v>
+        <v>0.28</v>
       </c>
       <c r="G6">
-        <v>0.977</v>
+        <v>0.335</v>
       </c>
       <c r="H6">
-        <v>-0.034</v>
+        <v>-0.32</v>
       </c>
       <c r="I6">
-        <v>0.84</v>
+        <v>0.226</v>
       </c>
       <c r="J6">
-        <v>0.278</v>
+        <v>-1.106</v>
       </c>
       <c r="K6">
-        <v>0.272</v>
+        <v>0.218</v>
       </c>
       <c r="L6">
-        <v>0.165</v>
+        <v>0.247</v>
       </c>
       <c r="M6">
-        <v>0.319</v>
-      </c>
-      <c r="Z6">
-        <v>0.015</v>
-      </c>
-      <c r="AA6">
-        <v>0.991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>-0.157</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.016</v>
-      </c>
-      <c r="E7">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="F7">
-        <v>-0.447</v>
-      </c>
-      <c r="G7">
-        <v>0.214</v>
-      </c>
-      <c r="H7">
-        <v>0.305</v>
-      </c>
-      <c r="I7">
-        <v>0.204</v>
-      </c>
-      <c r="J7">
-        <v>0.002</v>
-      </c>
-      <c r="K7">
-        <v>0.994</v>
-      </c>
-      <c r="L7">
-        <v>0.283</v>
-      </c>
-      <c r="M7">
-        <v>0.204</v>
-      </c>
-      <c r="Z7">
-        <v>0.124</v>
-      </c>
-      <c r="AA7">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>-3.179</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.184</v>
-      </c>
-      <c r="E8">
-        <v>0.373</v>
-      </c>
-      <c r="F8">
-        <v>1.156</v>
-      </c>
-      <c r="G8">
-        <v>0.013</v>
-      </c>
-      <c r="H8">
-        <v>0.594</v>
-      </c>
-      <c r="I8">
-        <v>0.114</v>
-      </c>
-      <c r="J8">
-        <v>-0.208</v>
-      </c>
-      <c r="K8">
-        <v>0.659</v>
-      </c>
-      <c r="L8">
-        <v>-0.03</v>
-      </c>
-      <c r="M8">
-        <v>0.955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>-0.626</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.28</v>
-      </c>
-      <c r="G9">
-        <v>0.335</v>
-      </c>
-      <c r="H9">
-        <v>-0.32</v>
-      </c>
-      <c r="I9">
-        <v>0.226</v>
-      </c>
-      <c r="J9">
-        <v>-1.106</v>
-      </c>
-      <c r="K9">
-        <v>0.218</v>
-      </c>
-      <c r="L9">
-        <v>0.247</v>
-      </c>
-      <c r="M9">
         <v>0.298</v>
       </c>
-      <c r="Z9">
+      <c r="N6">
         <v>-0.302</v>
       </c>
-      <c r="AA9">
+      <c r="O6">
         <v>0.776</v>
       </c>
     </row>
@@ -1559,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,163 +1139,163 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>-0.191</v>
+        <v>-0.105</v>
       </c>
       <c r="C2">
-        <v>0.002</v>
+        <v>0.042</v>
       </c>
       <c r="D2">
-        <v>-0.323</v>
+        <v>-0.197</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>0.652</v>
       </c>
       <c r="F2">
-        <v>-0.247</v>
+        <v>-0.039</v>
       </c>
       <c r="G2">
-        <v>0.033</v>
+        <v>0.697</v>
       </c>
       <c r="H2">
-        <v>0.013</v>
+        <v>0.034</v>
       </c>
       <c r="I2">
-        <v>0.929</v>
+        <v>0.312</v>
       </c>
       <c r="J2">
-        <v>0.002</v>
+        <v>-0.055</v>
       </c>
       <c r="K2">
-        <v>0.834</v>
+        <v>0.449</v>
       </c>
       <c r="L2">
-        <v>0.002</v>
+        <v>-0.055</v>
       </c>
       <c r="M2">
-        <v>0.834</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>-0.14</v>
+        <v>-0.191</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.002</v>
       </c>
       <c r="D3">
-        <v>-0.302</v>
+        <v>-0.323</v>
       </c>
       <c r="E3">
-        <v>0.362</v>
+        <v>0.015</v>
       </c>
       <c r="F3">
-        <v>-0.192</v>
+        <v>-0.247</v>
       </c>
       <c r="G3">
-        <v>0.5600000000000001</v>
+        <v>0.033</v>
       </c>
       <c r="H3">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="I3">
-        <v>0.626</v>
+        <v>0.929</v>
       </c>
       <c r="J3">
-        <v>-0.026</v>
+        <v>0.002</v>
       </c>
       <c r="K3">
-        <v>0.474</v>
+        <v>0.834</v>
       </c>
       <c r="L3">
-        <v>-0.026</v>
+        <v>0.002</v>
       </c>
       <c r="M3">
-        <v>0.474</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>-0.105</v>
+        <v>-0.144</v>
       </c>
       <c r="C4">
-        <v>0.042</v>
+        <v>0.033</v>
       </c>
       <c r="D4">
-        <v>-0.197</v>
+        <v>-0.123</v>
       </c>
       <c r="E4">
-        <v>0.652</v>
+        <v>0.066</v>
       </c>
       <c r="F4">
-        <v>-0.039</v>
+        <v>-0.112</v>
       </c>
       <c r="G4">
-        <v>0.697</v>
+        <v>0.184</v>
       </c>
       <c r="H4">
-        <v>0.034</v>
+        <v>-0.062</v>
       </c>
       <c r="I4">
-        <v>0.312</v>
+        <v>0.001</v>
       </c>
       <c r="J4">
-        <v>-0.055</v>
+        <v>-0.408</v>
       </c>
       <c r="K4">
-        <v>0.449</v>
+        <v>0.01</v>
       </c>
       <c r="L4">
-        <v>-0.055</v>
+        <v>-0.408</v>
       </c>
       <c r="M4">
-        <v>0.449</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1734,203 +1303,80 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.144</v>
+        <v>-0.136</v>
       </c>
       <c r="C5">
-        <v>0.033</v>
+        <v>0.26</v>
       </c>
       <c r="D5">
-        <v>-0.123</v>
+        <v>-0.145</v>
       </c>
       <c r="E5">
-        <v>0.066</v>
+        <v>0.152</v>
       </c>
       <c r="F5">
         <v>-0.112</v>
       </c>
       <c r="G5">
-        <v>0.184</v>
+        <v>0.23</v>
       </c>
       <c r="H5">
-        <v>-0.062</v>
+        <v>-0.023</v>
       </c>
       <c r="I5">
-        <v>0.001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J5">
-        <v>-0.408</v>
+        <v>0.151</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L5">
-        <v>-0.408</v>
+        <v>0.151</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>-0.142</v>
+        <v>-0.105</v>
       </c>
       <c r="C6">
-        <v>0.001</v>
+        <v>0.021</v>
       </c>
       <c r="D6">
-        <v>-0.13</v>
+        <v>-0.117</v>
       </c>
       <c r="E6">
-        <v>0.195</v>
+        <v>0.083</v>
       </c>
       <c r="F6">
-        <v>-0.081</v>
+        <v>-0.17</v>
       </c>
       <c r="G6">
-        <v>0.408</v>
+        <v>0.105</v>
       </c>
       <c r="H6">
-        <v>0.041</v>
+        <v>0.017</v>
       </c>
       <c r="I6">
-        <v>0.017</v>
+        <v>0.123</v>
       </c>
       <c r="J6">
-        <v>0.004</v>
+        <v>0.034</v>
       </c>
       <c r="K6">
-        <v>0.646</v>
+        <v>0.669</v>
       </c>
       <c r="L6">
-        <v>0.004</v>
+        <v>0.034</v>
       </c>
       <c r="M6">
-        <v>0.646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>-0.297</v>
-      </c>
-      <c r="C7">
-        <v>0.002</v>
-      </c>
-      <c r="D7">
-        <v>-0.262</v>
-      </c>
-      <c r="E7">
-        <v>0.012</v>
-      </c>
-      <c r="F7">
-        <v>-0.254</v>
-      </c>
-      <c r="G7">
-        <v>0.064</v>
-      </c>
-      <c r="H7">
-        <v>-0.147</v>
-      </c>
-      <c r="I7">
-        <v>0.138</v>
-      </c>
-      <c r="J7">
-        <v>-0.134</v>
-      </c>
-      <c r="K7">
-        <v>0.823</v>
-      </c>
-      <c r="L7">
-        <v>-0.134</v>
-      </c>
-      <c r="M7">
-        <v>0.823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>-0.136</v>
-      </c>
-      <c r="C8">
-        <v>0.26</v>
-      </c>
-      <c r="D8">
-        <v>-0.145</v>
-      </c>
-      <c r="E8">
-        <v>0.152</v>
-      </c>
-      <c r="F8">
-        <v>-0.112</v>
-      </c>
-      <c r="G8">
-        <v>0.23</v>
-      </c>
-      <c r="H8">
-        <v>-0.023</v>
-      </c>
-      <c r="I8">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.151</v>
-      </c>
-      <c r="K8">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.151</v>
-      </c>
-      <c r="M8">
-        <v>0.08699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>-0.105</v>
-      </c>
-      <c r="C9">
-        <v>0.021</v>
-      </c>
-      <c r="D9">
-        <v>-0.117</v>
-      </c>
-      <c r="E9">
-        <v>0.083</v>
-      </c>
-      <c r="F9">
-        <v>-0.17</v>
-      </c>
-      <c r="G9">
-        <v>0.105</v>
-      </c>
-      <c r="H9">
-        <v>0.017</v>
-      </c>
-      <c r="I9">
-        <v>0.123</v>
-      </c>
-      <c r="J9">
-        <v>0.034</v>
-      </c>
-      <c r="K9">
-        <v>0.669</v>
-      </c>
-      <c r="L9">
-        <v>0.034</v>
-      </c>
-      <c r="M9">
         <v>0.669</v>
       </c>
     </row>
